--- a/raw_data/summary.xlsx
+++ b/raw_data/summary.xlsx
@@ -5,15 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPACT_DroneRC_RF_Dataset\Acoustic Signals\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPACT_DroneRC_RF_Dataset\MPACT_acoustic_signals\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87404F4D-8006-44B1-AFE7-7F791C53DC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF1853A-E0B1-4F84-9111-4761F38CE71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11595" yWindow="3315" windowWidth="3765" windowHeight="7605" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="DJI_Inspire1Pro" sheetId="1" r:id="rId1"/>
+    <sheet name="DJI_Matrice100" sheetId="2" r:id="rId2"/>
+    <sheet name="DJI_Matrice600" sheetId="3" r:id="rId3"/>
+    <sheet name="DJI_Phantom4Pro" sheetId="4" r:id="rId4"/>
+    <sheet name="DJI_Phantom3" sheetId="5" r:id="rId5"/>
+    <sheet name="Parrot_AR" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="104">
   <si>
     <t>Model</t>
   </si>
@@ -110,6 +115,240 @@
   </si>
   <si>
     <t>sample00010</t>
+  </si>
+  <si>
+    <t>raw00004</t>
+  </si>
+  <si>
+    <t>sample00011</t>
+  </si>
+  <si>
+    <t>sample00012</t>
+  </si>
+  <si>
+    <t>sample00013</t>
+  </si>
+  <si>
+    <t>sample00014</t>
+  </si>
+  <si>
+    <t>sample00015</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5oHC-gMWkas</t>
+  </si>
+  <si>
+    <t>raw00005</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DhSp6r3EMHw</t>
+  </si>
+  <si>
+    <t>sample00016</t>
+  </si>
+  <si>
+    <t>sample00017</t>
+  </si>
+  <si>
+    <t>sample00018</t>
+  </si>
+  <si>
+    <t>sample00019</t>
+  </si>
+  <si>
+    <t>sample00020</t>
+  </si>
+  <si>
+    <t>sample00021</t>
+  </si>
+  <si>
+    <t>sample00022</t>
+  </si>
+  <si>
+    <t>sample00023</t>
+  </si>
+  <si>
+    <t>sample00024</t>
+  </si>
+  <si>
+    <t>sample00025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=osFUtE_3324 </t>
+  </si>
+  <si>
+    <t>raw00006</t>
+  </si>
+  <si>
+    <t>sample00026</t>
+  </si>
+  <si>
+    <t>sample00027</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=osFUtE_3325</t>
+  </si>
+  <si>
+    <t>DJI_Matrice100</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jQNE3lO1nvU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=u5BSz8t55K0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=u5BSz8t55K1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9Eip4UckCRY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X79IEv78QgM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dljwNtNcWRg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=b5Udo3mSkuo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=q0EmhBmS32s</t>
+  </si>
+  <si>
+    <t>raw00007</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uDYhYQKLl_8</t>
+  </si>
+  <si>
+    <t>raw00008</t>
+  </si>
+  <si>
+    <t>raw00009</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/mhNqdl2Gg7A</t>
+  </si>
+  <si>
+    <t>raw00010</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gcU83R42b-8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1XwIb6_5D1g</t>
+  </si>
+  <si>
+    <t>raw00011</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hxOta5NebjU</t>
+  </si>
+  <si>
+    <t>raw00012</t>
+  </si>
+  <si>
+    <t>DJI_Matrice600</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jrHG4B0-_5o</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MSgr8fidiDs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/n_w_bZSFnt0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jULQrdUTngM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jayVMmvLxOA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=M3QAhzHxqGA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Xs2nDHydJTo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Fvxt7IUHd54</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oqKrN8n6W6Y</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/mScNq5z61uQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mouuSslK0S4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mouuSslK0S5</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mouuSslK0S6</t>
+  </si>
+  <si>
+    <t>DJI_Phantom4Pro</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=r0qs3A1ed0w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cK3QswqjxUc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1TIK9HtG05o</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Vd7QBpC8764</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LZZ6xpeO5do</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R4I2_FKqfJc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJI_Phantom3 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nRmQAVJqIsY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WyzuyWEiU_g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Rsxfs0DnxqA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TmKmmnkMu6E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eYFfM_5tC0M</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/LFtSz9cfdvc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YCO8tKOpDsI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SKQcTvA4Wyg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/DcfgmB-Dg8s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Mlm7elBmhgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parrot_AR </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yYVvlfzbslM</t>
   </si>
 </sst>
 </file>
@@ -139,23 +378,127 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor theme="6" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -166,16 +509,1465 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="53">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -189,15 +1981,90 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96A89378-394C-43BE-AE07-D1E06A51A2C2}" name="Tabela1" displayName="Tabela1" ref="A1:F11" totalsRowShown="0">
-  <autoFilter ref="A1:F11" xr:uid="{96A89378-394C-43BE-AE07-D1E06A51A2C2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96A89378-394C-43BE-AE07-D1E06A51A2C2}" name="Tabela1" displayName="Tabela1" ref="A1:F28" totalsRowShown="0">
+  <autoFilter ref="A1:F28" xr:uid="{96A89378-394C-43BE-AE07-D1E06A51A2C2}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{33733DA6-87B8-4522-A2CC-54CC57D02BC3}" name="Model"/>
     <tableColumn id="2" xr3:uid="{A5A29BD7-B47C-47DA-8310-75F0186F9F35}" name="File (mp3)"/>
     <tableColumn id="3" xr3:uid="{B684CFC0-1AE2-4274-915C-B0C87D76010C}" name="Length(sec)"/>
     <tableColumn id="4" xr3:uid="{CA5B3524-3C48-4F61-B85B-BE2E57498987}" name="Size(kb)"/>
-    <tableColumn id="5" xr3:uid="{AF340E55-23E0-40B9-AECC-1C9F4EA16A95}" name="Origin (mp3)" dataCellStyle="Hiperlink"/>
+    <tableColumn id="5" xr3:uid="{AF340E55-23E0-40B9-AECC-1C9F4EA16A95}" name="Origin (mp3)"/>
     <tableColumn id="6" xr3:uid="{9605FE50-2370-4E02-AEA9-D5B271BD6780}" name="Source Link"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{164BA497-9AB1-4D3C-BD63-8B9C3385B1EE}" name="Tabela2" displayName="Tabela2" ref="A1:F18" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49" totalsRowBorderDxfId="48">
+  <autoFilter ref="A1:F18" xr:uid="{164BA497-9AB1-4D3C-BD63-8B9C3385B1EE}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0639208C-902D-48B1-AF7E-D1AC20024437}" name="Model" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{983FEA01-28FA-4901-B975-3677FB162023}" name="File (mp3)" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{F572E028-2D04-43E8-8574-211131DB2B48}" name="Length(sec)" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{B3554B5E-EEEA-4E1F-B145-7B7CE1232E83}" name="Size(kb)" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{79648FB2-616F-47FB-9B2F-D1AB48295D76}" name="Origin (mp3)" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{49A1CBD9-7F43-4905-A256-DE1AABBCC783}" name="Source Link" dataDxfId="42" dataCellStyle="Hiperlink"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{385EF695-0898-45DD-96B2-3EA2E7312E27}" name="Tabela3" displayName="Tabela3" ref="A1:F18" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40">
+  <autoFilter ref="A1:F18" xr:uid="{385EF695-0898-45DD-96B2-3EA2E7312E27}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0541F913-44FF-4846-9E56-EFF11B3BBB62}" name="Model" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{E411FCF7-5975-40FF-BF14-7E940040AA6A}" name="File (mp3)" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{C36376BC-EDDC-4DCA-ADE2-DF8A8609FFE7}" name="Length(sec)" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{4B332C36-1323-4FB5-A9DD-EDD5F84597C5}" name="Size(kb)" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{A67E2628-6C88-4289-8201-2A4716D15C12}" name="Origin (mp3)" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{108127C0-518D-4B2E-84E3-009850AD3A59}" name="Source Link" dataDxfId="33" dataCellStyle="Hiperlink"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49681EFC-51E6-47FA-BD07-3DAA44CAB11D}" name="Tabela4" displayName="Tabela4" ref="A1:F9" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+  <autoFilter ref="A1:F9" xr:uid="{49681EFC-51E6-47FA-BD07-3DAA44CAB11D}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{3CA5DC92-1DBA-4DFB-AEDA-869FACCE5A75}" name="Model" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{B2191912-5FF0-402C-91C7-537CCAAA1990}" name="File (mp3)" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{16DF9256-D398-49E0-BED0-2CD94187831C}" name="Length(sec)" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{D6457162-1EE3-4DC0-8CAD-31CDD6CC977A}" name="Size(kb)" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{05FE4A2E-BAB9-4253-AA5D-229452003636}" name="Origin (mp3)" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{4BABB4CE-554D-4CCF-B2F8-AE7B647E4085}" name="Source Link" dataDxfId="22" dataCellStyle="Hiperlink"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{22DEAF54-1DBB-48E3-B999-2DEC786E0C76}" name="Tabela5" displayName="Tabela5" ref="A1:F19" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+  <autoFilter ref="A1:F19" xr:uid="{22DEAF54-1DBB-48E3-B999-2DEC786E0C76}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{09656839-15C5-4E10-A76D-5768EB3875A5}" name="Model" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{04E8A0F1-9236-41F5-A3AD-75740D707E4A}" name="File (mp3)" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{FDF788BA-5897-4A9B-9F66-0A899786D7E1}" name="Length(sec)" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{CA34157E-2778-40CD-8CE1-B79212D43E08}" name="Size(kb)" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{BF4259FC-3371-478E-BEF4-23DB6119C58B}" name="Origin (mp3)" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{35C1372F-68B3-4C84-A6B5-E896BF07922F}" name="Source Link" dataDxfId="13" dataCellStyle="Hiperlink"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{39E47C7B-9473-465C-9244-E0D9A70AAE36}" name="Tabela6" displayName="Tabela6" ref="A1:F4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:F4" xr:uid="{39E47C7B-9473-465C-9244-E0D9A70AAE36}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{24528B31-5410-477E-BCE4-1EE293F0E6F9}" name="Model" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{49A093F0-1C26-473E-AF17-A00F99FC7072}" name="File (mp3)" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{9146671B-7E14-4262-A823-7936CDCF8895}" name="Length(sec)" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{C850F02A-8DBF-497D-9692-9B5932C6C0D7}" name="Size(kb)" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{31517F6C-7038-422E-9835-3F687286F333}" name="Origin (mp3)" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{10B44245-05E7-4C87-A4CD-6F4768F2E4A8}" name="Source Link" dataDxfId="2" dataCellStyle="Hiperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -466,10 +2333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +2382,7 @@
       <c r="D2">
         <v>235</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -535,7 +2402,7 @@
       <c r="D3">
         <v>345</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -555,7 +2422,7 @@
       <c r="D4">
         <v>329</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -575,7 +2442,7 @@
       <c r="D5">
         <v>470</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -595,7 +2462,7 @@
       <c r="D6">
         <v>532</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -615,7 +2482,7 @@
       <c r="D7">
         <v>251</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -635,7 +2502,7 @@
       <c r="D8">
         <v>235</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -655,7 +2522,7 @@
       <c r="D9">
         <v>579</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -675,7 +2542,7 @@
       <c r="D10">
         <v>267</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -695,11 +2562,351 @@
       <c r="D11">
         <v>314</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>126</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>173</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>173</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>267</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>111</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>298</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>314</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23">
+        <v>43</v>
+      </c>
+      <c r="D23">
+        <v>657</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24">
+        <v>45</v>
+      </c>
+      <c r="D24">
+        <v>689</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>283</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>74</v>
+      </c>
+      <c r="D26">
+        <v>1142</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>314</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>251</v>
+      </c>
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -713,10 +2920,1569 @@
     <hyperlink ref="F7" r:id="rId6" xr:uid="{B5AE06CA-9657-43EB-A009-554A420E60BD}"/>
     <hyperlink ref="F8" r:id="rId7" xr:uid="{3D594171-2807-428A-A773-CBD1BE5C98BA}"/>
     <hyperlink ref="F9:F11" r:id="rId8" display="https://www.youtube.com/watch?v=f4NYIksec60" xr:uid="{3F26CD01-DB03-4589-BA35-AFA40C266758}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{FBCBCB22-90C8-4035-BFC4-8599B42700DF}"/>
+    <hyperlink ref="F13:F16" r:id="rId10" display="https://www.youtube.com/watch?v=5oHC-gMWkas" xr:uid="{30D6C6C1-C360-4C36-8670-32124E6A4789}"/>
+    <hyperlink ref="F17" r:id="rId11" xr:uid="{58B4FBFF-48DE-4FCF-A108-F2FE8ACD3E1D}"/>
+    <hyperlink ref="F18:F26" r:id="rId12" display="https://www.youtube.com/watch?v=DhSp6r3EMHw" xr:uid="{A69CCDFB-F3EE-49EA-B120-C5FF67BA5FCC}"/>
+    <hyperlink ref="F27" r:id="rId13" xr:uid="{2C23F0F1-C19F-4A5C-9372-321E24F988EF}"/>
+    <hyperlink ref="F28" r:id="rId14" display="https://www.youtube.com/watch?v=osFUtE_3324 " xr:uid="{E48F8AC7-A05F-4CB5-953A-2296541D6F2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId15"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6FFF49-0FDD-417D-A546-FC8E55C72FE7}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5">
+        <v>392</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5">
+        <v>361</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5">
+        <v>236</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5">
+        <v>283</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5">
+        <v>423</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5">
+        <v>439</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8">
+        <v>189</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5">
+        <v>533</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5">
+        <v>66</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1017</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5">
+        <v>79</v>
+      </c>
+      <c r="D11" s="5">
+        <v>618</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5">
+        <v>189</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5">
+        <v>70</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1080</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5">
+        <v>267</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5">
+        <v>52</v>
+      </c>
+      <c r="D15" s="5">
+        <v>798</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5">
+        <v>49</v>
+      </c>
+      <c r="D16" s="5">
+        <v>751</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5">
+        <v>32</v>
+      </c>
+      <c r="D17" s="5">
+        <v>501</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5">
+        <v>204</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{EA97B822-D1FA-4D1A-BF49-2452DE012320}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{14CAFE85-776C-41B0-A29D-D2D27C268E4C}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{362D227C-3D1E-4747-8FBD-12AC260BBA05}"/>
+    <hyperlink ref="F5" r:id="rId4" display="https://www.youtube.com/watch?v=u5BSz8t55K0" xr:uid="{A008A903-ED2C-4832-A9A2-DDF0C5C63433}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{59D9F516-0D32-4561-912A-E046E4322C67}"/>
+    <hyperlink ref="F7:F8" r:id="rId6" display="https://www.youtube.com/watch?v=9Eip4UckCRY" xr:uid="{FDE6B90E-8DFB-41F4-824C-147835D58AB5}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{7BB68D3A-E538-4325-A50E-86221A99554B}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{8F0C3BC2-CD6B-48A9-8540-1023262FFC2E}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{8B801B27-C815-4CE0-99B8-089E7D75E2DE}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{5700B8D9-7C17-43F6-9931-93324D03AEC4}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{9E0282C9-416A-43D5-90CA-4BC3FC9A2F25}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{A1CA3801-36B3-4758-961A-68A676DCED1D}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{C8A89498-87E1-4258-98F5-D05F9A58D956}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{669FE20E-C6EC-43AE-AB1F-A6FDE76941DD}"/>
+    <hyperlink ref="F17" r:id="rId15" xr:uid="{A2619B02-5091-40B7-9178-59B3C713A0A7}"/>
+    <hyperlink ref="F18" r:id="rId16" xr:uid="{F5E3A3D7-E406-4936-A4B8-4C748B224398}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId17"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1323425-6C1E-485C-9CD4-9ADB93D17E8F}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45</v>
+      </c>
+      <c r="D2" s="5">
+        <v>689</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5">
+        <v>251</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5">
+        <v>36</v>
+      </c>
+      <c r="D4" s="5">
+        <v>564</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8">
+        <v>408</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>227</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
+        <v>71</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1095</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5">
+        <v>76</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1173</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5">
+        <v>329</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5">
+        <v>76</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1017</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5">
+        <v>61</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1443</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45</v>
+      </c>
+      <c r="D12" s="5">
+        <v>689</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5">
+        <v>220</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5">
+        <v>314</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5">
+        <v>392</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5">
+        <v>31</v>
+      </c>
+      <c r="D16" s="5">
+        <v>486</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5">
+        <v>43</v>
+      </c>
+      <c r="D17" s="5">
+        <v>657</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="8">
+        <v>20</v>
+      </c>
+      <c r="D18" s="8">
+        <v>314</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{9104904E-014A-4844-BF89-6AAB9205BC04}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{5C75D646-5812-4D00-AF46-00D06FB4B5B3}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{A5323DA0-B5D1-4566-B3E1-6D649864C2B4}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{8BE3CE65-E940-439C-AA4C-83D81F2498FA}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{721A93E7-4196-4AA4-9B2D-DEEB70416B35}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{51EB18DF-CA9A-472B-B80A-F17712F92075}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{645EBF7A-5BFE-4C02-9F7D-641D0A402BFC}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{6EEB99D8-7806-4FCB-BEF9-D7A07467F6E2}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{E551B004-9119-4B7A-9097-D98D2A66A7E3}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{CDF41D5D-85E5-4303-831C-3F0A4B052EC9}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{777961CE-E16C-44A0-8221-7B84FD831416}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{292AECAE-80C6-4EF2-A845-4B8895696E96}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{80192C30-0DE0-4FFA-BA53-C7C37F9C092D}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{A3056C30-396D-4B6C-AA4E-F3D197F56576}"/>
+    <hyperlink ref="F17:F18" r:id="rId15" display="https://www.youtube.com/watch?v=mouuSslK0S4" xr:uid="{553FC61D-CD0D-42C4-A06F-E625CA78F74D}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId16"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106B5130-5BA0-408E-9523-F13B96AE26C1}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5">
+        <v>126</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>142</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5">
+        <v>236</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5">
+        <v>267</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>142</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5">
+        <v>79</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5">
+        <v>78</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1189</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5">
+        <v>282</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{1BAB09EE-8900-4A0B-B599-1B0DFB58D4E5}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{65DF5905-A2BD-4941-A4D4-18428E596220}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{FDE59F18-E918-45D4-BA35-8EA6663634EA}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{5A85033B-8979-48A6-957B-170E7582FBB6}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{64DDEB74-4EEF-4D36-ADEA-6C520165FFC6}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{45669512-A197-4ED9-B93E-7004B286108F}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{54AC890C-C089-4B4C-B8EE-E00735E14131}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{40B18D7F-B354-44BE-B157-DBB58D03E91B}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
     <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A6764A-E514-44F8-94B5-C9CCE1A3FA08}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5">
+        <v>157</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5">
+        <v>157</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8">
+        <v>111</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8">
+        <v>126</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5">
+        <v>111</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5">
+        <v>220</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8">
+        <v>95</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8">
+        <v>27</v>
+      </c>
+      <c r="D9" s="8">
+        <v>423</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5">
+        <v>46</v>
+      </c>
+      <c r="D10" s="5">
+        <v>704</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5">
+        <v>126</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5">
+        <v>157</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5">
+        <v>64</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5">
+        <v>356</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5">
+        <v>392</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5">
+        <v>111</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5">
+        <v>20</v>
+      </c>
+      <c r="D17" s="5">
+        <v>314</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5">
+        <v>720</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5">
+        <v>298</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{E7158BE9-C6B6-4E3A-9344-B387AFCB07D5}"/>
+    <hyperlink ref="F3:F5" r:id="rId2" display="https://www.youtube.com/watch?v=nRmQAVJqIsY" xr:uid="{073EBAD2-C197-4717-B71E-778EDFD9C2CE}"/>
+    <hyperlink ref="F10" r:id="rId3" xr:uid="{E2C3B8CF-A770-4C77-9465-A55B76E9AECC}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{D8FE26EF-9FB7-4173-AAA8-02E10993CC4E}"/>
+    <hyperlink ref="F12" r:id="rId5" xr:uid="{789434A9-31CB-4016-BEC2-C0F2DBA7C62F}"/>
+    <hyperlink ref="F13" r:id="rId6" xr:uid="{9C02EDF9-F63C-4D48-8566-9CC49FAE24DD}"/>
+    <hyperlink ref="F15" r:id="rId7" xr:uid="{42A005D7-0C86-4C3A-9059-283E879C9079}"/>
+    <hyperlink ref="F16" r:id="rId8" xr:uid="{54218641-5774-4662-A615-8EAED41A8F7D}"/>
+    <hyperlink ref="F17" r:id="rId9" xr:uid="{A5E383E4-D7D3-4277-BF01-032D4015398D}"/>
+    <hyperlink ref="F18" r:id="rId10" xr:uid="{4539E3E9-07E9-4BA8-9DB6-564C79365398}"/>
+    <hyperlink ref="F19" r:id="rId11" xr:uid="{61064400-5D8E-43C1-B62C-F4DFE2D798CB}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId12"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFB24EC-5F2A-419A-857E-90ABE64A8032}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5">
+        <v>470</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <v>189</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8">
+        <v>408</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/raw_data/summary.xlsx
+++ b/raw_data/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPACT_DroneRC_RF_Dataset\MPACT_acoustic_signals\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF1853A-E0B1-4F84-9111-4761F38CE71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5E4E67-D803-4C28-BF43-FD38CB596B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11595" yWindow="3315" windowWidth="3765" windowHeight="7605" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="114">
   <si>
     <t>Model</t>
   </si>
@@ -349,6 +349,36 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=yYVvlfzbslM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bkKeijmgXW0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bkKeijmgXW1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bkKeijmgXW2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MUkhQYghy4Y</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3aRSrBtTUKo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4zCKjkDfFpo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/myeKa_YPSs8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zXdw58SgAeY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AbJ5d0p4WoA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZOLuo15BvLA</t>
   </si>
 </sst>
 </file>
@@ -529,64 +559,6 @@
   <dxfs count="53">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6" tint="0.59999389629810485"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -835,6 +807,30 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -866,30 +862,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6" tint="0.59999389629810485"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1108,16 +1080,74 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="medium">
           <color theme="1"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2041,30 +2071,30 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{22DEAF54-1DBB-48E3-B999-2DEC786E0C76}" name="Tabela5" displayName="Tabela5" ref="A1:F19" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{22DEAF54-1DBB-48E3-B999-2DEC786E0C76}" name="Tabela5" displayName="Tabela5" ref="A1:F19" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A1:F19" xr:uid="{22DEAF54-1DBB-48E3-B999-2DEC786E0C76}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{09656839-15C5-4E10-A76D-5768EB3875A5}" name="Model" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{04E8A0F1-9236-41F5-A3AD-75740D707E4A}" name="File (mp3)" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{FDF788BA-5897-4A9B-9F66-0A899786D7E1}" name="Length(sec)" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{CA34157E-2778-40CD-8CE1-B79212D43E08}" name="Size(kb)" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{BF4259FC-3371-478E-BEF4-23DB6119C58B}" name="Origin (mp3)" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{35C1372F-68B3-4C84-A6B5-E896BF07922F}" name="Source Link" dataDxfId="13" dataCellStyle="Hiperlink"/>
+    <tableColumn id="1" xr3:uid="{09656839-15C5-4E10-A76D-5768EB3875A5}" name="Model" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{04E8A0F1-9236-41F5-A3AD-75740D707E4A}" name="File (mp3)" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{FDF788BA-5897-4A9B-9F66-0A899786D7E1}" name="Length(sec)" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{CA34157E-2778-40CD-8CE1-B79212D43E08}" name="Size(kb)" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{BF4259FC-3371-478E-BEF4-23DB6119C58B}" name="Origin (mp3)" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{35C1372F-68B3-4C84-A6B5-E896BF07922F}" name="Source Link" dataDxfId="11" dataCellStyle="Hiperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{39E47C7B-9473-465C-9244-E0D9A70AAE36}" name="Tabela6" displayName="Tabela6" ref="A1:F4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:F4" xr:uid="{39E47C7B-9473-465C-9244-E0D9A70AAE36}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{39E47C7B-9473-465C-9244-E0D9A70AAE36}" name="Tabela6" displayName="Tabela6" ref="A1:F28" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F28" xr:uid="{39E47C7B-9473-465C-9244-E0D9A70AAE36}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{24528B31-5410-477E-BCE4-1EE293F0E6F9}" name="Model" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{49A093F0-1C26-473E-AF17-A00F99FC7072}" name="File (mp3)" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{9146671B-7E14-4262-A823-7936CDCF8895}" name="Length(sec)" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{C850F02A-8DBF-497D-9692-9B5932C6C0D7}" name="Size(kb)" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{31517F6C-7038-422E-9835-3F687286F333}" name="Origin (mp3)" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{10B44245-05E7-4C87-A4CD-6F4768F2E4A8}" name="Source Link" dataDxfId="2" dataCellStyle="Hiperlink"/>
+    <tableColumn id="1" xr3:uid="{24528B31-5410-477E-BCE4-1EE293F0E6F9}" name="Model" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{49A093F0-1C26-473E-AF17-A00F99FC7072}" name="File (mp3)" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{9146671B-7E14-4262-A823-7936CDCF8895}" name="Length(sec)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{C850F02A-8DBF-497D-9692-9B5932C6C0D7}" name="Size(kb)" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{31517F6C-7038-422E-9835-3F687286F333}" name="Origin (mp3)" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{10B44245-05E7-4C87-A4CD-6F4768F2E4A8}" name="Source Link" dataDxfId="0" dataCellStyle="Hiperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4382,10 +4412,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFB24EC-5F2A-419A-857E-90ABE64A8032}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4478,11 +4508,507 @@
         <v>103</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>33</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>79</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8">
+        <v>64</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5">
+        <v>48</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4</v>
+      </c>
+      <c r="D10" s="8">
+        <v>64</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8">
+        <v>80</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>48</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="8">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8">
+        <v>80</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45</v>
+      </c>
+      <c r="D15" s="5">
+        <v>689</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5">
+        <v>153</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2345</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5">
+        <v>195</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>79</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5">
+        <v>48</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="8">
+        <v>12</v>
+      </c>
+      <c r="D20" s="8">
+        <v>189</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="5">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5">
+        <v>64</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5">
+        <v>46</v>
+      </c>
+      <c r="D22" s="5">
+        <v>360</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="8">
+        <v>34</v>
+      </c>
+      <c r="D23" s="8">
+        <v>26</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="8">
+        <v>25</v>
+      </c>
+      <c r="D24" s="8">
+        <v>196</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="8">
+        <v>7</v>
+      </c>
+      <c r="D25" s="8">
+        <v>56</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="8">
+        <v>25</v>
+      </c>
+      <c r="D26" s="8">
+        <v>196</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="8">
+        <v>15</v>
+      </c>
+      <c r="D27" s="8">
+        <v>118</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="5">
+        <v>111</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1704</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{7E716460-4DE5-415A-881D-93256419D6D3}"/>
+    <hyperlink ref="F6:F7" r:id="rId2" display="https://www.youtube.com/watch?v=bkKeijmgXW0" xr:uid="{82D5FE2B-1BDE-432F-BCE9-43278EA670D1}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{932023F4-35C7-4A6D-B93B-E133FCE5AB6D}"/>
+    <hyperlink ref="F9:F11" r:id="rId4" display="https://www.youtube.com/watch?v=MUkhQYghy4Y" xr:uid="{7DC3D6E0-1263-4F39-B104-FBFBA3B276E5}"/>
+    <hyperlink ref="F12" r:id="rId5" xr:uid="{6171086D-4809-43F3-94EA-DE5E25C1FDEA}"/>
+    <hyperlink ref="F13" r:id="rId6" xr:uid="{971C77F0-B8C6-4062-806A-F2B8EE11C551}"/>
+    <hyperlink ref="F14" r:id="rId7" xr:uid="{29447B32-3704-4C45-9B74-E84299451976}"/>
+    <hyperlink ref="F15" r:id="rId8" xr:uid="{DBD3E2BA-BFD1-4BAA-BA71-31ABF4C6FFCF}"/>
+    <hyperlink ref="F16" r:id="rId9" xr:uid="{2316FA54-3515-40E1-844E-253AC784974C}"/>
+    <hyperlink ref="F17" r:id="rId10" xr:uid="{58EE01B6-E419-459A-9687-83F4817944EE}"/>
+    <hyperlink ref="F18" r:id="rId11" xr:uid="{64DD36DD-F438-4F9F-ADDC-02DD35E5AE5F}"/>
+    <hyperlink ref="F19" r:id="rId12" xr:uid="{45D07114-7F7D-4A45-B76C-91AB96465E9B}"/>
+    <hyperlink ref="F20" r:id="rId13" xr:uid="{EBE53384-A722-48E1-AE2B-270FF5D37EC6}"/>
+    <hyperlink ref="F28" r:id="rId14" xr:uid="{833AB9E5-6480-49EF-BD2B-52AF2C93806F}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>